--- a/Robotic Process Automation/DataScraping/data.xlsx
+++ b/Robotic Process Automation/DataScraping/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6th Sem\Robotic Process Automation\DataScraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9183A13E-2EAE-475B-B7BB-372D6F67B6B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103DAC4F-1718-48F9-950F-10AC99FAB58B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1620" yWindow="2244" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,36 +33,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>HP 15 Entry Level 15.6-inch HD Laptop (AMD 3020e/4GB/1TB HDD/Windows 10 Home/Jet Black/1.74 Kg), 15s-gy0003AU</t>
-  </si>
-  <si>
-    <t>Asus X509MA-BR270T/ Silver/ Intel Celeron N4020/ RAM 4GB/ SSD 256GB/ 15.6 inch HD/ FP/ 2Cell/ Win 10SL</t>
-  </si>
-  <si>
-    <t>ASUS VivoBook 14 (2020) Intel Quad Core Pentium Silver N5030, 14-inch FHD Thin and Light Laptop (4GB RAM/1TB HDD/Windows 10/Integrated Graphics/Transparent Silver/1.5 Kg), X415MA-EK101T</t>
-  </si>
-  <si>
-    <t>Lenovo IdeaPad Slim 3 Intel Celeron N4020 15.6-inch HD Thin and Light Laptop (4GB/256GB SSD/Windows 10/Platinum Grey/1.7Kg), 81WQ003LIN</t>
-  </si>
-  <si>
-    <t>Lenovo Ideapad Slim 3 AMD Athlon Silver 3050U 15.6 inch HD Thin and Light Laptop (4GB/1TB HDD/Windows 10/MS Office 2019/Platinum Grey/1.85Kg), 81W100HKIN</t>
-  </si>
-  <si>
-    <t>HP Chromebook 14a-na0003TU 14-inch Thin &amp; Light Touchscreen Laptop (Intel N4020/4GB/64GB SSD + 256GB Expandable/Chrome OS/1.46 kgs Light), Mineral Silver</t>
-  </si>
-  <si>
-    <t>Life Digital Entry Level Laptop, (Intel Core i3/4GB RAM/1TB HDD+128GB SSD/Type-C Data/Win10), ZED AIR CX3</t>
-  </si>
-  <si>
-    <t>Dell Inspiron 3502 15.6" HD Display Laptop (Pentium Silver N5030 / 4GB / 256GB SSD / Integrated Graphics / Win 10 + MSO / Accent Black) D560427WIN9BE</t>
-  </si>
-  <si>
-    <t>Coconics Enabler Laptop C1C11, Ubuntu, Intel® Celeron® Processor N4000 (1.1 GHz ~ 2.60 GHz), 11.6 Inch FHD (1920x1080) Display, Black, 4GB RAM (LPDDR4), 64GB eMMC Storage, 990gms Only</t>
-  </si>
-  <si>
-    <t>HP 15 Intel Pentium Gold 6405U Processor Entry Level Laptop (4GB/1TB/Win 10/Jet Black/1.74kg), 15s-du1052tu, 39.6 cm (15.6-inch)</t>
-  </si>
-  <si>
     <t>HP 15 AMD Athlon 15.6-inch HD Laptop (Silver-3050U/4GB/1TB/Win 10/MS Office/Jet Black/1.85kg), 15s-gy0001au</t>
   </si>
   <si>
@@ -76,6 +46,36 @@
   </si>
   <si>
     <t>HP 14 Ultra Thin &amp; Light 14-inch Laptop (10th Gen i3-1005G1/8GB/256GB SSD/Win 10 Home/MS Office/1.47 Kg/Jet Black), 14s-cf3074TU</t>
+  </si>
+  <si>
+    <t>HP 15 AMD Athlon 15.6" (39.62cms) HD Laptop (Silver-3050U/4GB/1TB/Win 10/MS Office/Jet Black/1.85kg), 15s-gy0001au</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude Laptop E3380 Intel Core i3 - 6006u Processor 6th Gen, 16 GB Ram &amp; 256 GB SSD, 13.3 Inches Screen (Ultra Slim &amp; Light 1.63KG) Notebook Computer</t>
+  </si>
+  <si>
+    <t>(Renewed) HP Elitebook UltraSlim Hybrid Laptop 840G1 Intel Core i5 - 4300U Processor, 8 GB Ram, 1TB Harddisk &amp; 128 GB SSD, Windows 10 Pro, 14.1 Inches Notebook Computer</t>
+  </si>
+  <si>
+    <t>HP Chromebook 14a-na0003TU 14-inch (35.56 cms) Thin &amp; Light Touchscreen Laptop (Intel N4020/4GB/64GB SSD + 256GB Expandable/Chrome OS/1.46 kgs Light), Mineral Silver</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3505 15.6" FHD Display Laptop (R3-3250U / 8GB / 1TB HDD / Integrated Graphics / Win 10 + MSO / Soft Mint) D560429WIN9S</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad S145 7th Gen Intel Core i3 15.6” Thin and Light Laptop (4GB/1TB HDD/Win10 + Office Home/Intel UHD Graphics/Platinum Grey/1.85kg), 81VD00EQIN</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3505 15.6" (39.62 cms) FHD AG Display Laptop ( Ryzen3 3250U / 8GB / 1TB / Integrated Graphics / Win 10 + MSO / Accent Black) D560406WIN9BE</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3501 15.6" (39.62 cms) FHD AG Display Laptop (i3-1005G1 / 8GB / 1TB / Integrated Graphics / Win 10 + MSO / Softmint) D560421WIN9S</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad Slim 3 AMD Ryzen 3 15.6 inch (39.62 cms) Full HD Thin and Light Laptop (4GB/1TB HDD/Windows 10/MS Office 2019/Platinum Grey/1.85Kg), 81W10057IN</t>
+  </si>
+  <si>
+    <t>HP 15 (2021) Thin &amp; Light Ryzen 3-3250 Laptop, 8 GB RAM, 1TB HDD, 38.1 cms (15") FHD Screen, Windows 10, MS Office (15s-gr0011AU)</t>
   </si>
 </sst>
 </file>
@@ -416,87 +416,87 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>23990</v>
+        <v>26999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>23100</v>
+        <v>36390</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>24990</v>
+        <v>36890</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>27890</v>
+        <v>24490</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>25990</v>
+        <v>35690</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
-        <v>24480</v>
+        <v>31990</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>21990</v>
+        <v>34190</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>27390</v>
+        <v>39939</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
-        <v>15980</v>
+        <v>30490</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1">
-        <v>26599</v>
+        <v>35695</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>26990</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1">
         <v>27990</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1">
         <v>24200</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1">
         <v>29990</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1">
         <v>36990</v>
